--- a/biology/Botanique/Eucalyptus_brownii/Eucalyptus_brownii.xlsx
+++ b/biology/Botanique/Eucalyptus_brownii/Eucalyptus_brownii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus brownii est une espèce d'Eucalyptus protégée par l'Organisation mondiale de protection de la flore. On peut la trouver en petites populations sur les côtes Nord de l'Australie. Elle comporte des fleurs roses et jaunes avec des grains verts sur le pistil.
 </t>
